--- a/Fintel_Citadel_Numerai_compare.xlsx
+++ b/Fintel_Citadel_Numerai_compare.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moda2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC44DDE-48B0-4E9B-A4CB-ACEA996EFECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A66FE01-D3E4-4071-B11C-1C71633DBE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="6" r:id="rId1"/>
     <sheet name="compare" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">compare!$A$1:$B$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">compare!$F$1:$G$347</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="432">
   <si>
     <t>Citadel</t>
     <phoneticPr fontId="2"/>
@@ -1349,6 +1349,14 @@
 Citadel
 https://fintel.io/i/citadel-investment-advisory-inc</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Portfoio</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Numerai  Portfoio</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1753,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C953E5-C421-49C0-9D6E-F0BFDA8E80C5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1803,13 +1811,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7EAF73-97CE-4038-ADC0-346AE7F9EE19}">
   <dimension ref="A1:G347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="38.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1818,10 +1825,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1836,7 +1846,7 @@
         <v>312</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5.0299999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1844,14 +1854,14 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="e">
-        <f t="shared" ref="B3:B65" si="0">VLOOKUP(A3,$F$2:$G$347,2,FALSE)</f>
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(A3,$F$2:$G$347,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F3" t="s">
         <v>105</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1866,7 +1876,7 @@
         <v>213</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.2079</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1881,7 +1891,7 @@
         <v>185</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.29459999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1896,7 +1906,7 @@
         <v>96</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.0092000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1905,13 +1915,13 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>108</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.76180000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1920,13 +1930,13 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="F8" t="s">
         <v>220</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.19270000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1941,7 +1951,7 @@
         <v>125</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.5716</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1956,7 +1966,7 @@
         <v>282</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1971,7 +1981,7 @@
         <v>397</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1986,7 +1996,7 @@
         <v>299</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>8.9200000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2001,7 +2011,7 @@
         <v>211</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.21440000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2016,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2031,7 +2041,7 @@
         <v>30</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2046,7 +2056,7 @@
         <v>113</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.70640000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2061,7 +2071,7 @@
         <v>296</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2076,7 +2086,7 @@
         <v>135</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.4924</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2091,7 +2101,7 @@
         <v>169</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.37609999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2106,7 +2116,7 @@
         <v>139</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.47839999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2121,7 +2131,7 @@
         <v>317</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3.8600000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2136,7 +2146,7 @@
         <v>383</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2151,7 +2161,7 @@
         <v>350</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2166,7 +2176,7 @@
         <v>217</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.20150000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2181,7 +2191,7 @@
         <v>303</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>8.77E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2196,7 +2206,7 @@
         <v>152</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.42449999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2205,13 +2215,13 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>201</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2226,7 +2236,7 @@
         <v>407</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2241,7 +2251,7 @@
         <v>123</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.58069999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2256,7 +2266,7 @@
         <v>326</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2271,7 +2281,7 @@
         <v>285</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>9.9900000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2286,7 +2296,7 @@
         <v>210</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2301,7 +2311,7 @@
         <v>316</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>3.9399999999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2316,7 +2326,7 @@
         <v>331</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2331,7 +2341,7 @@
         <v>239</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2346,7 +2356,7 @@
         <v>382</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2361,7 +2371,7 @@
         <v>395</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2376,7 +2386,7 @@
         <v>94</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>1.0468999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2391,7 +2401,7 @@
         <v>90</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>1.1507000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2406,7 +2416,7 @@
         <v>240</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0.1477</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2421,7 +2431,7 @@
         <v>246</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0.14119999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2436,7 +2446,7 @@
         <v>304</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>8.7300000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2451,7 +2461,7 @@
         <v>77</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>1.9424999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2466,7 +2476,7 @@
         <v>111</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0.73060000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2481,7 +2491,7 @@
         <v>311</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2496,7 +2506,7 @@
         <v>102</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2511,7 +2521,7 @@
         <v>147</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0.44729999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2526,7 +2536,7 @@
         <v>225</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0.18479999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2541,7 +2551,7 @@
         <v>155</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0.41520000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2556,7 +2566,7 @@
         <v>323</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2571,7 +2581,7 @@
         <v>129</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0.54479999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2586,7 +2596,7 @@
         <v>150</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0.43209999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2601,7 +2611,7 @@
         <v>205</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0.2303</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2616,7 +2626,7 @@
         <v>364</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2631,7 +2641,7 @@
         <v>380</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2646,7 +2656,7 @@
         <v>373</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2661,7 +2671,7 @@
         <v>265</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0.1239</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2676,7 +2686,7 @@
         <v>166</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0.38940000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2691,7 +2701,7 @@
         <v>230</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0.16669999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2706,7 +2716,7 @@
         <v>242</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2721,7 +2731,7 @@
         <v>363</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2736,7 +2746,7 @@
         <v>279</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2745,13 +2755,13 @@
       </c>
       <c r="B63" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
         <v>243</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0.14460000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2766,7 +2776,7 @@
         <v>193</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0.27189999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2781,7 +2791,7 @@
         <v>191</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0.27639999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2789,14 +2799,14 @@
         <v>10</v>
       </c>
       <c r="B66" s="3" t="e">
-        <f t="shared" ref="B66:B81" si="1">VLOOKUP(A66,$F$2:$G$347,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="F66" t="s">
         <v>327</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2804,14 +2814,14 @@
         <v>62</v>
       </c>
       <c r="B67" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B67:B81" si="1">VLOOKUP(A67,$F$2:$G$347,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F67" t="s">
         <v>121</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0.59560000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2826,7 +2836,7 @@
         <v>119</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2841,7 +2851,7 @@
         <v>233</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0.16059999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2856,7 +2866,7 @@
         <v>134</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2871,7 +2881,7 @@
         <v>172</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0.35039999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2886,7 +2896,7 @@
         <v>375</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2901,7 +2911,7 @@
         <v>313</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>4.9200000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2916,7 +2926,7 @@
         <v>392</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2931,7 +2941,7 @@
         <v>325</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2946,7 +2956,7 @@
         <v>261</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0.12770000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2961,7 +2971,7 @@
         <v>175</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0.34649999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2976,7 +2986,7 @@
         <v>97</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0.99450000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2991,7 +3001,7 @@
         <v>127</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0.55579999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3006,7 +3016,7 @@
         <v>82</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>1.7201</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3015,13 +3025,13 @@
       </c>
       <c r="B81" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
         <v>351</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3029,7 +3039,7 @@
         <v>99</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0.95109999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3037,7 +3047,7 @@
         <v>332</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3045,7 +3055,7 @@
         <v>402</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3053,7 +3063,7 @@
         <v>177</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0.34060000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3061,7 +3071,7 @@
         <v>252</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0.13539999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3069,7 +3079,7 @@
         <v>367</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3077,7 +3087,7 @@
         <v>404</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3085,7 +3095,7 @@
         <v>101</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0.86529999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3093,7 +3103,7 @@
         <v>268</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0.12039999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3101,7 +3111,7 @@
         <v>83</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>1.5428999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3109,7 +3119,7 @@
         <v>359</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3117,7 +3127,7 @@
         <v>342</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3125,7 +3135,7 @@
         <v>81</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>1.7658</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3133,7 +3143,7 @@
         <v>165</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0.39529999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3141,7 +3151,7 @@
         <v>414</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="6:7">
@@ -3149,7 +3159,7 @@
         <v>260</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="98" spans="6:7">
@@ -3157,7 +3167,7 @@
         <v>400</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="6:7">
@@ -3165,7 +3175,7 @@
         <v>84</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>1.4851000000000001</v>
       </c>
     </row>
     <row r="100" spans="6:7">
@@ -3173,7 +3183,7 @@
         <v>235</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0.1552</v>
       </c>
     </row>
     <row r="101" spans="6:7">
@@ -3181,7 +3191,7 @@
         <v>300</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="102" spans="6:7">
@@ -3189,7 +3199,7 @@
         <v>388</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="6:7">
@@ -3197,7 +3207,7 @@
         <v>283</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="104" spans="6:7">
@@ -3205,7 +3215,7 @@
         <v>156</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0.41470000000000001</v>
       </c>
     </row>
     <row r="105" spans="6:7">
@@ -3213,7 +3223,7 @@
         <v>266</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0.1237</v>
       </c>
     </row>
     <row r="106" spans="6:7">
@@ -3221,7 +3231,7 @@
         <v>120</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0.61260000000000003</v>
       </c>
     </row>
     <row r="107" spans="6:7">
@@ -3229,7 +3239,7 @@
         <v>86</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>1.3434999999999999</v>
       </c>
     </row>
     <row r="108" spans="6:7">
@@ -3237,7 +3247,7 @@
         <v>98</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0.97840000000000005</v>
       </c>
     </row>
     <row r="109" spans="6:7">
@@ -3245,7 +3255,7 @@
         <v>227</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="110" spans="6:7">
@@ -3253,7 +3263,7 @@
         <v>209</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0.21579999999999999</v>
       </c>
     </row>
     <row r="111" spans="6:7">
@@ -3261,7 +3271,7 @@
         <v>145</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0.44919999999999999</v>
       </c>
     </row>
     <row r="112" spans="6:7">
@@ -3269,7 +3279,7 @@
         <v>181</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0.31080000000000002</v>
       </c>
     </row>
     <row r="113" spans="6:7">
@@ -3277,7 +3287,7 @@
         <v>68</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="6:7">
@@ -3285,7 +3295,7 @@
         <v>335</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="6:7">
@@ -3293,7 +3303,7 @@
         <v>142</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0.46879999999999999</v>
       </c>
     </row>
     <row r="116" spans="6:7">
@@ -3301,7 +3311,7 @@
         <v>138</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0.47889999999999999</v>
       </c>
     </row>
     <row r="117" spans="6:7">
@@ -3309,7 +3319,7 @@
         <v>206</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0.22869999999999999</v>
       </c>
     </row>
     <row r="118" spans="6:7">
@@ -3317,7 +3327,7 @@
         <v>338</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="6:7">
@@ -3325,7 +3335,7 @@
         <v>100</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0.93730000000000002</v>
       </c>
     </row>
     <row r="120" spans="6:7">
@@ -3333,7 +3343,7 @@
         <v>237</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="121" spans="6:7">
@@ -3341,7 +3351,7 @@
         <v>394</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="6:7">
@@ -3349,7 +3359,7 @@
         <v>164</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0.40160000000000001</v>
       </c>
     </row>
     <row r="123" spans="6:7">
@@ -3357,7 +3367,7 @@
         <v>307</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>7.8600000000000003E-2</v>
       </c>
     </row>
     <row r="124" spans="6:7">
@@ -3365,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="6:7">
@@ -3373,7 +3383,7 @@
         <v>369</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="6:7">
@@ -3381,7 +3391,7 @@
         <v>319</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>3.4599999999999999E-2</v>
       </c>
     </row>
     <row r="127" spans="6:7">
@@ -3389,7 +3399,7 @@
         <v>226</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0.17879999999999999</v>
       </c>
     </row>
     <row r="128" spans="6:7">
@@ -3397,7 +3407,7 @@
         <v>238</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="129" spans="6:7">
@@ -3405,7 +3415,7 @@
         <v>248</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0.13950000000000001</v>
       </c>
     </row>
     <row r="130" spans="6:7">
@@ -3413,7 +3423,7 @@
         <v>149</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0.43990000000000001</v>
       </c>
     </row>
     <row r="131" spans="6:7">
@@ -3421,7 +3431,7 @@
         <v>212</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0.21060000000000001</v>
       </c>
     </row>
     <row r="132" spans="6:7">
@@ -3429,7 +3439,7 @@
         <v>158</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0.40620000000000001</v>
       </c>
     </row>
     <row r="133" spans="6:7">
@@ -3437,7 +3447,7 @@
         <v>301</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="134" spans="6:7">
@@ -3445,7 +3455,7 @@
         <v>153</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="135" spans="6:7">
@@ -3453,7 +3463,7 @@
         <v>391</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="6:7">
@@ -3461,7 +3471,7 @@
         <v>229</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="137" spans="6:7">
@@ -3469,7 +3479,7 @@
         <v>128</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0.55530000000000002</v>
       </c>
     </row>
     <row r="138" spans="6:7">
@@ -3477,7 +3487,7 @@
         <v>253</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0.13539999999999999</v>
       </c>
     </row>
     <row r="139" spans="6:7">
@@ -3485,7 +3495,7 @@
         <v>116</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0.6613</v>
       </c>
     </row>
     <row r="140" spans="6:7">
@@ -3493,7 +3503,7 @@
         <v>148</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0.44569999999999999</v>
       </c>
     </row>
     <row r="141" spans="6:7">
@@ -3501,7 +3511,7 @@
         <v>218</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0.20039999999999999</v>
       </c>
     </row>
     <row r="142" spans="6:7">
@@ -3509,7 +3519,7 @@
         <v>231</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="143" spans="6:7">
@@ -3517,7 +3527,7 @@
         <v>354</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:7">
@@ -3525,7 +3535,7 @@
         <v>203</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0.23630000000000001</v>
       </c>
     </row>
     <row r="145" spans="6:7">
@@ -3533,7 +3543,7 @@
         <v>170</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="146" spans="6:7">
@@ -3541,7 +3551,7 @@
         <v>378</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="6:7">
@@ -3549,7 +3559,7 @@
         <v>204</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0.23150000000000001</v>
       </c>
     </row>
     <row r="148" spans="6:7">
@@ -3557,7 +3567,7 @@
         <v>264</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0.12479999999999999</v>
       </c>
     </row>
     <row r="149" spans="6:7">
@@ -3565,7 +3575,7 @@
         <v>95</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>1.0329999999999999</v>
       </c>
     </row>
     <row r="150" spans="6:7">
@@ -3573,7 +3583,7 @@
         <v>168</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0.38419999999999999</v>
       </c>
     </row>
     <row r="151" spans="6:7">
@@ -3581,7 +3591,7 @@
         <v>410</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="6:7">
@@ -3589,7 +3599,7 @@
         <v>157</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0.4098</v>
       </c>
     </row>
     <row r="153" spans="6:7">
@@ -3597,7 +3607,7 @@
         <v>236</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="154" spans="6:7">
@@ -3605,7 +3615,7 @@
         <v>154</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0.42049999999999998</v>
       </c>
     </row>
     <row r="155" spans="6:7">
@@ -3613,7 +3623,7 @@
         <v>289</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>9.6500000000000002E-2</v>
       </c>
     </row>
     <row r="156" spans="6:7">
@@ -3621,7 +3631,7 @@
         <v>85</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>1.3638999999999999</v>
       </c>
     </row>
     <row r="157" spans="6:7">
@@ -3629,7 +3639,7 @@
         <v>356</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="6:7">
@@ -3637,7 +3647,7 @@
         <v>353</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="6:7">
@@ -3645,7 +3655,7 @@
         <v>371</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="6:7">
@@ -3653,7 +3663,7 @@
         <v>126</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0.55959999999999999</v>
       </c>
     </row>
     <row r="161" spans="6:7">
@@ -3661,7 +3671,7 @@
         <v>355</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="6:7">
@@ -3669,7 +3679,7 @@
         <v>182</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="163" spans="6:7">
@@ -3677,7 +3687,7 @@
         <v>297</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="164" spans="6:7">
@@ -3685,7 +3695,7 @@
         <v>381</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="6:7">
@@ -3693,7 +3703,7 @@
         <v>254</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="166" spans="6:7">
@@ -3701,7 +3711,7 @@
         <v>214</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>0.20569999999999999</v>
       </c>
     </row>
     <row r="167" spans="6:7">
@@ -3709,7 +3719,7 @@
         <v>412</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="6:7">
@@ -3717,7 +3727,7 @@
         <v>306</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="169" spans="6:7">
@@ -3725,7 +3735,7 @@
         <v>109</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0.74180000000000001</v>
       </c>
     </row>
     <row r="170" spans="6:7">
@@ -3733,7 +3743,7 @@
         <v>293</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>9.1700000000000004E-2</v>
       </c>
     </row>
     <row r="171" spans="6:7">
@@ -3741,7 +3751,7 @@
         <v>305</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>8.72E-2</v>
       </c>
     </row>
     <row r="172" spans="6:7">
@@ -3749,7 +3759,7 @@
         <v>118</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0.65359999999999996</v>
       </c>
     </row>
     <row r="173" spans="6:7">
@@ -3757,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>2.1173999999999999</v>
       </c>
     </row>
     <row r="174" spans="6:7">
@@ -3765,7 +3775,7 @@
         <v>80</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>1.8093999999999999</v>
       </c>
     </row>
     <row r="175" spans="6:7">
@@ -3773,7 +3783,7 @@
         <v>345</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="6:7">
@@ -3781,7 +3791,7 @@
         <v>358</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="6:7">
@@ -3789,7 +3799,7 @@
         <v>137</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0.48080000000000001</v>
       </c>
     </row>
     <row r="178" spans="6:7">
@@ -3797,7 +3807,7 @@
         <v>89</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>1.1579999999999999</v>
       </c>
     </row>
     <row r="179" spans="6:7">
@@ -3805,7 +3815,7 @@
         <v>234</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0.15909999999999999</v>
       </c>
     </row>
     <row r="180" spans="6:7">
@@ -3813,7 +3823,7 @@
         <v>334</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="6:7">
@@ -3821,7 +3831,7 @@
         <v>106</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0.79510000000000003</v>
       </c>
     </row>
     <row r="182" spans="6:7">
@@ -3829,7 +3839,7 @@
         <v>366</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="6:7">
@@ -3837,7 +3847,7 @@
         <v>387</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="6:7">
@@ -3845,7 +3855,7 @@
         <v>376</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="6:7">
@@ -3853,7 +3863,7 @@
         <v>196</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0.26279999999999998</v>
       </c>
     </row>
     <row r="186" spans="6:7">
@@ -3861,7 +3871,7 @@
         <v>87</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>1.2236</v>
       </c>
     </row>
     <row r="187" spans="6:7">
@@ -3869,7 +3879,7 @@
         <v>180</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0.31340000000000001</v>
       </c>
     </row>
     <row r="188" spans="6:7">
@@ -3877,7 +3887,7 @@
         <v>386</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="6:7">
@@ -3885,7 +3895,7 @@
         <v>163</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0.40179999999999999</v>
       </c>
     </row>
     <row r="190" spans="6:7">
@@ -3893,7 +3903,7 @@
         <v>287</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>9.7900000000000001E-2</v>
       </c>
     </row>
     <row r="191" spans="6:7">
@@ -3901,7 +3911,7 @@
         <v>406</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="6:7">
@@ -3909,7 +3919,7 @@
         <v>389</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="6:7">
@@ -3917,7 +3927,7 @@
         <v>262</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0.12620000000000001</v>
       </c>
     </row>
     <row r="194" spans="6:7">
@@ -3925,7 +3935,7 @@
         <v>144</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0.45650000000000002</v>
       </c>
     </row>
     <row r="195" spans="6:7">
@@ -3933,7 +3943,7 @@
         <v>250</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0.1361</v>
       </c>
     </row>
     <row r="196" spans="6:7">
@@ -3941,7 +3951,7 @@
         <v>341</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="6:7">
@@ -3949,7 +3959,7 @@
         <v>184</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0.29770000000000002</v>
       </c>
     </row>
     <row r="198" spans="6:7">
@@ -3957,7 +3967,7 @@
         <v>273</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="199" spans="6:7">
@@ -3965,7 +3975,7 @@
         <v>393</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="6:7">
@@ -3973,7 +3983,7 @@
         <v>308</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>7.1599999999999997E-2</v>
       </c>
     </row>
     <row r="201" spans="6:7">
@@ -3981,7 +3991,7 @@
         <v>160</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="202" spans="6:7">
@@ -3989,7 +3999,7 @@
         <v>362</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="6:7">
@@ -3997,7 +4007,7 @@
         <v>179</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="204" spans="6:7">
@@ -4005,7 +4015,7 @@
         <v>171</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="205" spans="6:7">
@@ -4013,7 +4023,7 @@
         <v>195</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0.26490000000000002</v>
       </c>
     </row>
     <row r="206" spans="6:7">
@@ -4021,7 +4031,7 @@
         <v>216</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="207" spans="6:7">
@@ -4029,7 +4039,7 @@
         <v>104</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="208" spans="6:7">
@@ -4037,7 +4047,7 @@
         <v>115</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0.67249999999999999</v>
       </c>
     </row>
     <row r="209" spans="6:7">
@@ -4045,7 +4055,7 @@
         <v>241</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="210" spans="6:7">
@@ -4053,7 +4063,7 @@
         <v>275</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0.1143</v>
       </c>
     </row>
     <row r="211" spans="6:7">
@@ -4061,7 +4071,7 @@
         <v>188</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0.28289999999999998</v>
       </c>
     </row>
     <row r="212" spans="6:7">
@@ -4069,7 +4079,7 @@
         <v>151</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0.42830000000000001</v>
       </c>
     </row>
     <row r="213" spans="6:7">
@@ -4077,7 +4087,7 @@
         <v>340</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="6:7">
@@ -4085,7 +4095,7 @@
         <v>322</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="215" spans="6:7">
@@ -4093,7 +4103,7 @@
         <v>271</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0.11609999999999999</v>
       </c>
     </row>
     <row r="216" spans="6:7">
@@ -4101,7 +4111,7 @@
         <v>320</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="217" spans="6:7">
@@ -4109,7 +4119,7 @@
         <v>200</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0.23849999999999999</v>
       </c>
     </row>
     <row r="218" spans="6:7">
@@ -4117,7 +4127,7 @@
         <v>91</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>1.1336999999999999</v>
       </c>
     </row>
     <row r="219" spans="6:7">
@@ -4125,7 +4135,7 @@
         <v>336</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="6:7">
@@ -4133,7 +4143,7 @@
         <v>75</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>2.5878000000000001</v>
       </c>
     </row>
     <row r="221" spans="6:7">
@@ -4141,7 +4151,7 @@
         <v>244</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0.1439</v>
       </c>
     </row>
     <row r="222" spans="6:7">
@@ -4149,7 +4159,7 @@
         <v>198</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="223" spans="6:7">
@@ -4157,7 +4167,7 @@
         <v>114</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>0.69489999999999996</v>
       </c>
     </row>
     <row r="224" spans="6:7">
@@ -4165,7 +4175,7 @@
         <v>197</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="225" spans="6:7">
@@ -4173,7 +4183,7 @@
         <v>189</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>0.28289999999999998</v>
       </c>
     </row>
     <row r="226" spans="6:7">
@@ -4181,7 +4191,7 @@
         <v>365</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="6:7">
@@ -4189,7 +4199,7 @@
         <v>232</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>0.16120000000000001</v>
       </c>
     </row>
     <row r="228" spans="6:7">
@@ -4197,7 +4207,7 @@
         <v>167</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0.3886</v>
       </c>
     </row>
     <row r="229" spans="6:7">
@@ -4205,7 +4215,7 @@
         <v>403</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="6:7">
@@ -4213,7 +4223,7 @@
         <v>178</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0.33779999999999999</v>
       </c>
     </row>
     <row r="231" spans="6:7">
@@ -4221,7 +4231,7 @@
         <v>339</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="6:7">
@@ -4229,7 +4239,7 @@
         <v>215</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0.2051</v>
       </c>
     </row>
     <row r="233" spans="6:7">
@@ -4237,7 +4247,7 @@
         <v>194</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>0.26860000000000001</v>
       </c>
     </row>
     <row r="234" spans="6:7">
@@ -4245,7 +4255,7 @@
         <v>315</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>4.1700000000000001E-2</v>
       </c>
     </row>
     <row r="235" spans="6:7">
@@ -4253,7 +4263,7 @@
         <v>352</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="6:7">
@@ -4261,7 +4271,7 @@
         <v>411</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="6:7">
@@ -4269,7 +4279,7 @@
         <v>162</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0.40189999999999998</v>
       </c>
     </row>
     <row r="238" spans="6:7">
@@ -4277,7 +4287,7 @@
         <v>368</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="6:7">
@@ -4285,7 +4295,7 @@
         <v>328</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="6:7">
@@ -4293,7 +4303,7 @@
         <v>187</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0.2853</v>
       </c>
     </row>
     <row r="241" spans="6:7">
@@ -4301,7 +4311,7 @@
         <v>258</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="242" spans="6:7">
@@ -4309,7 +4319,7 @@
         <v>344</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="6:7">
@@ -4317,7 +4327,7 @@
         <v>377</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="6:7">
@@ -4325,7 +4335,7 @@
         <v>221</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>0.19070000000000001</v>
       </c>
     </row>
     <row r="245" spans="6:7">
@@ -4333,7 +4343,7 @@
         <v>124</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0.58069999999999999</v>
       </c>
     </row>
     <row r="246" spans="6:7">
@@ -4341,7 +4351,7 @@
         <v>263</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>0.1258</v>
       </c>
     </row>
     <row r="247" spans="6:7">
@@ -4349,7 +4359,7 @@
         <v>79</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>1.8292999999999999</v>
       </c>
     </row>
     <row r="248" spans="6:7">
@@ -4357,7 +4367,7 @@
         <v>280</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="249" spans="6:7">
@@ -4365,7 +4375,7 @@
         <v>251</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>0.13589999999999999</v>
       </c>
     </row>
     <row r="250" spans="6:7">
@@ -4373,7 +4383,7 @@
         <v>288</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>9.74E-2</v>
       </c>
     </row>
     <row r="251" spans="6:7">
@@ -4381,7 +4391,7 @@
         <v>302</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>8.8700000000000001E-2</v>
       </c>
     </row>
     <row r="252" spans="6:7">
@@ -4389,7 +4399,7 @@
         <v>310</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>6.0199999999999997E-2</v>
       </c>
     </row>
     <row r="253" spans="6:7">
@@ -4397,7 +4407,7 @@
         <v>413</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="6:7">
@@ -4405,7 +4415,7 @@
         <v>222</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>0.18720000000000001</v>
       </c>
     </row>
     <row r="255" spans="6:7">
@@ -4413,7 +4423,7 @@
         <v>92</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>1.1234999999999999</v>
       </c>
     </row>
     <row r="256" spans="6:7">
@@ -4421,7 +4431,7 @@
         <v>245</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>0.1419</v>
       </c>
     </row>
     <row r="257" spans="6:7">
@@ -4429,7 +4439,7 @@
         <v>349</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="6:7">
@@ -4437,7 +4447,7 @@
         <v>396</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="6:7">
@@ -4445,7 +4455,7 @@
         <v>291</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>9.3399999999999997E-2</v>
       </c>
     </row>
     <row r="260" spans="6:7">
@@ -4453,7 +4463,7 @@
         <v>183</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0.30120000000000002</v>
       </c>
     </row>
     <row r="261" spans="6:7">
@@ -4461,7 +4471,7 @@
         <v>117</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0.65690000000000004</v>
       </c>
     </row>
     <row r="262" spans="6:7">
@@ -4469,7 +4479,7 @@
         <v>348</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="6:7">
@@ -4477,7 +4487,7 @@
         <v>370</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="6:7">
@@ -4485,7 +4495,7 @@
         <v>224</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="265" spans="6:7">
@@ -4493,7 +4503,7 @@
         <v>357</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="6:7">
@@ -4501,7 +4511,7 @@
         <v>270</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>0.1188</v>
       </c>
     </row>
     <row r="267" spans="6:7">
@@ -4509,7 +4519,7 @@
         <v>408</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="6:7">
@@ -4517,7 +4527,7 @@
         <v>199</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="269" spans="6:7">
@@ -4525,7 +4535,7 @@
         <v>223</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0.18629999999999999</v>
       </c>
     </row>
     <row r="270" spans="6:7">
@@ -4533,7 +4543,7 @@
         <v>146</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>0.44829999999999998</v>
       </c>
     </row>
     <row r="271" spans="6:7">
@@ -4541,7 +4551,7 @@
         <v>401</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="6:7">
@@ -4549,7 +4559,7 @@
         <v>321</v>
       </c>
       <c r="G272">
-        <v>1</v>
+        <v>2.41E-2</v>
       </c>
     </row>
     <row r="273" spans="6:7">
@@ -4557,7 +4567,7 @@
         <v>274</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>0.1148</v>
       </c>
     </row>
     <row r="274" spans="6:7">
@@ -4565,7 +4575,7 @@
         <v>208</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>0.21890000000000001</v>
       </c>
     </row>
     <row r="275" spans="6:7">
@@ -4573,7 +4583,7 @@
         <v>141</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0.47810000000000002</v>
       </c>
     </row>
     <row r="276" spans="6:7">
@@ -4581,7 +4591,7 @@
         <v>255</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0.1343</v>
       </c>
     </row>
     <row r="277" spans="6:7">
@@ -4589,7 +4599,7 @@
         <v>228</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>0.1769</v>
       </c>
     </row>
     <row r="278" spans="6:7">
@@ -4597,7 +4607,7 @@
         <v>324</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="6:7">
@@ -4605,7 +4615,7 @@
         <v>346</v>
       </c>
       <c r="G279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="6:7">
@@ -4613,7 +4623,7 @@
         <v>256</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="281" spans="6:7">
@@ -4621,7 +4631,7 @@
         <v>219</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0.1951</v>
       </c>
     </row>
     <row r="282" spans="6:7">
@@ -4629,7 +4639,7 @@
         <v>295</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>9.1300000000000006E-2</v>
       </c>
     </row>
     <row r="283" spans="6:7">
@@ -4637,7 +4647,7 @@
         <v>249</v>
       </c>
       <c r="G283">
-        <v>1</v>
+        <v>0.1391</v>
       </c>
     </row>
     <row r="284" spans="6:7">
@@ -4645,7 +4655,7 @@
         <v>281</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>0.1069</v>
       </c>
     </row>
     <row r="285" spans="6:7">
@@ -4653,7 +4663,7 @@
         <v>384</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="6:7">
@@ -4661,7 +4671,7 @@
         <v>133</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>0.5151</v>
       </c>
     </row>
     <row r="287" spans="6:7">
@@ -4669,7 +4679,7 @@
         <v>190</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="288" spans="6:7">
@@ -4677,7 +4687,7 @@
         <v>131</v>
       </c>
       <c r="G288">
-        <v>1</v>
+        <v>0.53939999999999999</v>
       </c>
     </row>
     <row r="289" spans="6:7">
@@ -4685,7 +4695,7 @@
         <v>103</v>
       </c>
       <c r="G289">
-        <v>1</v>
+        <v>0.8468</v>
       </c>
     </row>
     <row r="290" spans="6:7">
@@ -4693,7 +4703,7 @@
         <v>347</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="6:7">
@@ -4701,7 +4711,7 @@
         <v>269</v>
       </c>
       <c r="G291">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="292" spans="6:7">
@@ -4709,7 +4719,7 @@
         <v>259</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>0.1288</v>
       </c>
     </row>
     <row r="293" spans="6:7">
@@ -4717,7 +4727,7 @@
         <v>277</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="294" spans="6:7">
@@ -4725,7 +4735,7 @@
         <v>343</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="6:7">
@@ -4733,7 +4743,7 @@
         <v>318</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>3.61E-2</v>
       </c>
     </row>
     <row r="296" spans="6:7">
@@ -4741,7 +4751,7 @@
         <v>337</v>
       </c>
       <c r="G296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="6:7">
@@ -4749,7 +4759,7 @@
         <v>298</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>9.0499999999999997E-2</v>
       </c>
     </row>
     <row r="298" spans="6:7">
@@ -4757,7 +4767,7 @@
         <v>140</v>
       </c>
       <c r="G298">
-        <v>1</v>
+        <v>0.47820000000000001</v>
       </c>
     </row>
     <row r="299" spans="6:7">
@@ -4765,7 +4775,7 @@
         <v>309</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>7.0599999999999996E-2</v>
       </c>
     </row>
     <row r="300" spans="6:7">
@@ -4773,7 +4783,7 @@
         <v>385</v>
       </c>
       <c r="G300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="6:7">
@@ -4781,7 +4791,7 @@
         <v>186</v>
       </c>
       <c r="G301">
-        <v>1</v>
+        <v>0.29039999999999999</v>
       </c>
     </row>
     <row r="302" spans="6:7">
@@ -4789,7 +4799,7 @@
         <v>361</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="6:7">
@@ -4797,7 +4807,7 @@
         <v>372</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="6:7">
@@ -4805,7 +4815,7 @@
         <v>207</v>
       </c>
       <c r="G304">
-        <v>1</v>
+        <v>0.2205</v>
       </c>
     </row>
     <row r="305" spans="6:7">
@@ -4813,7 +4823,7 @@
         <v>329</v>
       </c>
       <c r="G305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="6:7">
@@ -4821,7 +4831,7 @@
         <v>122</v>
       </c>
       <c r="G306">
-        <v>1</v>
+        <v>0.59560000000000002</v>
       </c>
     </row>
     <row r="307" spans="6:7">
@@ -4829,7 +4839,7 @@
         <v>93</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>1.1167</v>
       </c>
     </row>
     <row r="308" spans="6:7">
@@ -4837,7 +4847,7 @@
         <v>267</v>
       </c>
       <c r="G308">
-        <v>1</v>
+        <v>0.1226</v>
       </c>
     </row>
     <row r="309" spans="6:7">
@@ -4845,7 +4855,7 @@
         <v>132</v>
       </c>
       <c r="G309">
-        <v>1</v>
+        <v>0.52090000000000003</v>
       </c>
     </row>
     <row r="310" spans="6:7">
@@ -4853,7 +4863,7 @@
         <v>333</v>
       </c>
       <c r="G310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="6:7">
@@ -4861,7 +4871,7 @@
         <v>374</v>
       </c>
       <c r="G311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="6:7">
@@ -4869,7 +4879,7 @@
         <v>415</v>
       </c>
       <c r="G312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="6:7">
@@ -4877,7 +4887,7 @@
         <v>161</v>
       </c>
       <c r="G313">
-        <v>1</v>
+        <v>0.4032</v>
       </c>
     </row>
     <row r="314" spans="6:7">
@@ -4885,7 +4895,7 @@
         <v>78</v>
       </c>
       <c r="G314">
-        <v>1</v>
+        <v>1.8391999999999999</v>
       </c>
     </row>
     <row r="315" spans="6:7">
@@ -4893,7 +4903,7 @@
         <v>398</v>
       </c>
       <c r="G315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="6:7">
@@ -4901,7 +4911,7 @@
         <v>247</v>
       </c>
       <c r="G316">
-        <v>1</v>
+        <v>0.14050000000000001</v>
       </c>
     </row>
     <row r="317" spans="6:7">
@@ -4909,7 +4919,7 @@
         <v>130</v>
       </c>
       <c r="G317">
-        <v>1</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="318" spans="6:7">
@@ -4917,7 +4927,7 @@
         <v>390</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="6:7">
@@ -4925,7 +4935,7 @@
         <v>192</v>
       </c>
       <c r="G319">
-        <v>1</v>
+        <v>0.27439999999999998</v>
       </c>
     </row>
     <row r="320" spans="6:7">
@@ -4933,7 +4943,7 @@
         <v>110</v>
       </c>
       <c r="G320">
-        <v>1</v>
+        <v>0.73409999999999997</v>
       </c>
     </row>
     <row r="321" spans="6:7">
@@ -4941,7 +4951,7 @@
         <v>314</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>4.36E-2</v>
       </c>
     </row>
     <row r="322" spans="6:7">
@@ -4949,7 +4959,7 @@
         <v>272</v>
       </c>
       <c r="G322">
-        <v>1</v>
+        <v>0.11609999999999999</v>
       </c>
     </row>
     <row r="323" spans="6:7">
@@ -4957,7 +4967,7 @@
         <v>409</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="6:7">
@@ -4965,7 +4975,7 @@
         <v>284</v>
       </c>
       <c r="G324">
-        <v>1</v>
+        <v>0.1011</v>
       </c>
     </row>
     <row r="325" spans="6:7">
@@ -4973,7 +4983,7 @@
         <v>136</v>
       </c>
       <c r="G325">
-        <v>1</v>
+        <v>0.48659999999999998</v>
       </c>
     </row>
     <row r="326" spans="6:7">
@@ -4981,7 +4991,7 @@
         <v>399</v>
       </c>
       <c r="G326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="6:7">
@@ -4989,7 +4999,7 @@
         <v>405</v>
       </c>
       <c r="G327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="6:7">
@@ -4997,7 +5007,7 @@
         <v>330</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="6:7">
@@ -5005,7 +5015,7 @@
         <v>416</v>
       </c>
       <c r="G329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="6:7">
@@ -5013,7 +5023,7 @@
         <v>88</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>1.1866000000000001</v>
       </c>
     </row>
     <row r="331" spans="6:7">
@@ -5021,7 +5031,7 @@
         <v>107</v>
       </c>
       <c r="G331">
-        <v>1</v>
+        <v>0.78469999999999995</v>
       </c>
     </row>
     <row r="332" spans="6:7">
@@ -5029,7 +5039,7 @@
         <v>360</v>
       </c>
       <c r="G332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="6:7">
@@ -5037,7 +5047,7 @@
         <v>286</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>9.9500000000000005E-2</v>
       </c>
     </row>
     <row r="334" spans="6:7">
@@ -5045,7 +5055,7 @@
         <v>278</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>0.10920000000000001</v>
       </c>
     </row>
     <row r="335" spans="6:7">
@@ -5053,7 +5063,7 @@
         <v>173</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>0.34889999999999999</v>
       </c>
     </row>
     <row r="336" spans="6:7">
@@ -5061,7 +5071,7 @@
         <v>257</v>
       </c>
       <c r="G336">
-        <v>1</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="337" spans="6:7">
@@ -5069,7 +5079,7 @@
         <v>202</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>0.2364</v>
       </c>
     </row>
     <row r="338" spans="6:7">
@@ -5077,7 +5087,7 @@
         <v>292</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>9.2600000000000002E-2</v>
       </c>
     </row>
     <row r="339" spans="6:7">
@@ -5085,7 +5095,7 @@
         <v>112</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="340" spans="6:7">
@@ -5093,7 +5103,7 @@
         <v>174</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>0.3488</v>
       </c>
     </row>
     <row r="341" spans="6:7">
@@ -5101,7 +5111,7 @@
         <v>47</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="6:7">
@@ -5109,7 +5119,7 @@
         <v>294</v>
       </c>
       <c r="G342">
-        <v>1</v>
+        <v>9.1499999999999998E-2</v>
       </c>
     </row>
     <row r="343" spans="6:7">
@@ -5117,7 +5127,7 @@
         <v>276</v>
       </c>
       <c r="G343">
-        <v>1</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="344" spans="6:7">
@@ -5125,7 +5135,7 @@
         <v>290</v>
       </c>
       <c r="G344">
-        <v>1</v>
+        <v>9.5299999999999996E-2</v>
       </c>
     </row>
     <row r="345" spans="6:7">
@@ -5133,7 +5143,7 @@
         <v>176</v>
       </c>
       <c r="G345">
-        <v>1</v>
+        <v>0.34589999999999999</v>
       </c>
     </row>
     <row r="346" spans="6:7">
@@ -5141,7 +5151,7 @@
         <v>159</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>0.40579999999999999</v>
       </c>
     </row>
     <row r="347" spans="6:7">
@@ -5149,11 +5159,11 @@
         <v>143</v>
       </c>
       <c r="G347">
-        <v>1</v>
+        <v>0.4592</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B81" xr:uid="{9F7EAF73-97CE-4038-ADC0-346AE7F9EE19}"/>
+  <autoFilter ref="F1:G347" xr:uid="{9F7EAF73-97CE-4038-ADC0-346AE7F9EE19}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A82">
     <sortCondition ref="A2:A82"/>
   </sortState>
